--- a/R/vanta_xrf_elements.xlsx
+++ b/R/vanta_xrf_elements.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc-my.sharepoint.com/personal/samuel_araya_usda_gov/Documents/Documents/R-Project/TidyXRF/R/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_907D5B90573D742009BE52CE1DD4F65D38A92CDB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15C88089-1437-454D-A9B2-676570C3E1C3}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="vanta_xrf_elements" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="standards_desc" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="xrf_elements" sheetId="1" r:id="rId1"/>
+    <sheet name="standards_desc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,509 +26,497 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="158">
-  <si>
-    <t xml:space="preserve">Atomic_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atomic_Mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRCS Sludge Limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NJDEP Soil Remediation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYS DEC Residential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnesium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluminum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silicon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phosphorus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potassium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scandium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanadium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chromium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manganese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nickel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gallium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arsenic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bromine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubidium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strontium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yttrium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zirconium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niobium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molybdenum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technetium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruthenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhodium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palladium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadmium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antimony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tellurium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Te</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iodine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lanthanum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praseodymium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neodymium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samarium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gadolinium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terbium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dysprosium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holmium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erbium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thulium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ytterbium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lutetium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hafnium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tantalum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tungsten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osmium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iridium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platinum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thallium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bismuth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thorium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uranium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory limits on heavy metals applied to soils.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRCS (2000) Heavy Metal Soil Contamination, Soil Quality—Urban Technical Note No. 3, Soil Quality Institute, Auburn, AL.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
+  <si>
+    <t>Atomic_Number</t>
+  </si>
+  <si>
+    <t>Atomic_Mass</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>LOD</t>
+  </si>
+  <si>
+    <t>NRCS Sludge Limits</t>
+  </si>
+  <si>
+    <t>NJDEP Soil Remediation</t>
+  </si>
+  <si>
+    <t>NYS DEC Residential</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Sulfur</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Chlorine</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Scandium</t>
+  </si>
+  <si>
+    <t>Sc</t>
+  </si>
+  <si>
+    <t>Titanium</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Vanadium</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Gallium</t>
+  </si>
+  <si>
+    <t>Ga</t>
+  </si>
+  <si>
+    <t>Germanium</t>
+  </si>
+  <si>
+    <t>Ge</t>
+  </si>
+  <si>
+    <t>Arsenic</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Se</t>
+  </si>
+  <si>
+    <t>Bromine</t>
+  </si>
+  <si>
+    <t>Br</t>
+  </si>
+  <si>
+    <t>Rubidium</t>
+  </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
+    <t>Strontium</t>
+  </si>
+  <si>
+    <t>Sr</t>
+  </si>
+  <si>
+    <t>Yttrium</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Zirconium</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>Niobium</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Molybdenum</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Technetium</t>
+  </si>
+  <si>
+    <t>Tc</t>
+  </si>
+  <si>
+    <t>Ruthenium</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>Rhodium</t>
+  </si>
+  <si>
+    <t>Rh</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Cadmium</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>Indium</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>Antimony</t>
+  </si>
+  <si>
+    <t>Sb</t>
+  </si>
+  <si>
+    <t>Tellurium</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Iodine</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Cesium</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Barium</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Lanthanum</t>
+  </si>
+  <si>
+    <t>La</t>
+  </si>
+  <si>
+    <t>Cerium</t>
+  </si>
+  <si>
+    <t>Ce</t>
+  </si>
+  <si>
+    <t>Praseodymium</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Neodymium</t>
+  </si>
+  <si>
+    <t>Nd</t>
+  </si>
+  <si>
+    <t>Samarium</t>
+  </si>
+  <si>
+    <t>Sm</t>
+  </si>
+  <si>
+    <t>Europium</t>
+  </si>
+  <si>
+    <t>Eu</t>
+  </si>
+  <si>
+    <t>Gadolinium</t>
+  </si>
+  <si>
+    <t>Gd</t>
+  </si>
+  <si>
+    <t>Terbium</t>
+  </si>
+  <si>
+    <t>Tb</t>
+  </si>
+  <si>
+    <t>Dysprosium</t>
+  </si>
+  <si>
+    <t>Dy</t>
+  </si>
+  <si>
+    <t>Holmium</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>Erbium</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Thulium</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>Ytterbium</t>
+  </si>
+  <si>
+    <t>Yb</t>
+  </si>
+  <si>
+    <t>Lutetium</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>Hafnium</t>
+  </si>
+  <si>
+    <t>Hf</t>
+  </si>
+  <si>
+    <t>Tantalum</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Tungsten</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Rhenium</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Osmium</t>
+  </si>
+  <si>
+    <t>Os</t>
+  </si>
+  <si>
+    <t>Iridium</t>
+  </si>
+  <si>
+    <t>Ir</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>Hg</t>
+  </si>
+  <si>
+    <t>Thallium</t>
+  </si>
+  <si>
+    <t>Tl</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Bismuth</t>
+  </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>Thorium</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>column_name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Regulatory limits on heavy metals applied to soils.</t>
+  </si>
+  <si>
+    <t>NRCS (2000) Heavy Metal Soil Contamination, Soil Quality—Urban Technical Note No. 3, Soil Quality Institute, Auburn, AL.</t>
   </si>
   <si>
     <t xml:space="preserve">NJDEP Soil Remediation Standards. Residential Direct Contact Health Based Criteria. </t>
   </si>
   <si>
-    <t xml:space="preserve">The Soil Remediation Standard for Arsenic is based on natural background levels in soil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYS DEC, Soil Cleanup Objectives, Residential Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCOs for As, Ba, Cd, Mn are based on background levels in rural soils</t>
+    <t>The Soil Remediation Standard for Arsenic is based on natural background levels in soil.</t>
+  </si>
+  <si>
+    <t>NYS DEC, Soil Cleanup Objectives, Residential Use</t>
+  </si>
+  <si>
+    <t>SCOs for As, Ba, Cd, Mn are based on background levels in rural soils</t>
+  </si>
+  <si>
+    <t>Light Elements</t>
+  </si>
+  <si>
+    <t>LE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -560,7 +553,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -568,63 +561,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Bad" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -683,35 +636,343 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMH72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="9" style="1" width="11.52"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1"/>
+    <col min="7" max="8" width="8.5546875" style="1" customWidth="1"/>
+    <col min="9" max="1022" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,11 +998,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>24.305</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -750,15 +1011,15 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>26.9815</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -767,15 +1028,15 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>28.0855</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -784,16 +1045,16 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>30.9738</v>
+      <c r="B5" s="1">
+        <v>30.973800000000001</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -801,18 +1062,18 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>50</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>32.065</v>
+      <c r="B6" s="1">
+        <v>32.064999999999998</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -820,18 +1081,18 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>35.453</v>
+      <c r="B7" s="1">
+        <v>35.453000000000003</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -839,18 +1100,18 @@
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>50</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>39.0983</v>
+      <c r="B8" s="1">
+        <v>39.098300000000002</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
@@ -858,18 +1119,18 @@
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>25</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>40.078</v>
+      <c r="B9" s="1">
+        <v>40.078000000000003</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -877,17 +1138,17 @@
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>25</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>44.9559</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -896,16 +1157,16 @@
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>47.867</v>
+      <c r="B11" s="1">
+        <v>47.866999999999997</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
@@ -913,16 +1174,16 @@
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>50.9415</v>
+      <c r="B12" s="1">
+        <v>50.941499999999998</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -930,16 +1191,16 @@
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>51.9961</v>
+      <c r="B13" s="1">
+        <v>51.996099999999998</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
@@ -947,23 +1208,23 @@
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>3000</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>54.938</v>
+      <c r="B14" s="1">
+        <v>54.938000000000002</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -971,22 +1232,22 @@
       <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="n">
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
         <v>11000</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>55.845</v>
+      <c r="B15" s="1">
+        <v>55.844999999999999</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>34</v>
@@ -994,18 +1255,18 @@
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>58.9332</v>
+      <c r="B16" s="1">
+        <v>58.933199999999999</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
@@ -1013,20 +1274,20 @@
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2" t="n">
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
         <v>1600</v>
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>28</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>58.6934</v>
+      <c r="B17" s="1">
+        <v>58.693399999999997</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>38</v>
@@ -1034,25 +1295,25 @@
       <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="n">
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
         <v>75</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="2">
         <v>1600</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>29</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>63.546</v>
+      <c r="B18" s="1">
+        <v>63.545999999999999</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>40</v>
@@ -1060,24 +1321,24 @@
       <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="n">
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
         <v>4300</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>3100</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="2">
         <v>270</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>30</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>65.39</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1086,25 +1347,25 @@
       <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="n">
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
         <v>7500</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>23000</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>69.723</v>
+      <c r="B20" s="1">
+        <v>69.722999999999999</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>44</v>
@@ -1112,15 +1373,15 @@
       <c r="D20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>32</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>72.64</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1129,16 +1390,16 @@
       <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>33</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>74.9216</v>
+      <c r="B22" s="1">
+        <v>74.921599999999998</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>48</v>
@@ -1146,25 +1407,25 @@
       <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="n">
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
         <v>75</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>19</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>34</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>78.96</v>
+      <c r="B23" s="1">
+        <v>78.959999999999994</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>50</v>
@@ -1172,25 +1433,25 @@
       <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1" t="n">
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
         <v>100</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="2">
         <v>390</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>35</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>79.904</v>
+      <c r="B24" s="1">
+        <v>79.903999999999996</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>52</v>
@@ -1198,16 +1459,16 @@
       <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>37</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>85.4678</v>
+      <c r="B25" s="1">
+        <v>85.467799999999997</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>54</v>
@@ -1215,17 +1476,17 @@
       <c r="D25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="1">
         <v>5</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>38</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>87.62</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1234,18 +1495,18 @@
       <c r="D26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="1">
         <v>5</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>39</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>88.9059</v>
+      <c r="B27" s="1">
+        <v>88.905900000000003</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>58</v>
@@ -1253,16 +1514,16 @@
       <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>40</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>91.224</v>
+      <c r="B28" s="1">
+        <v>91.224000000000004</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>60</v>
@@ -1270,18 +1531,18 @@
       <c r="D28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="1">
         <v>5</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>41</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>92.9064</v>
+      <c r="B29" s="1">
+        <v>92.906400000000005</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>62</v>
@@ -1289,15 +1550,15 @@
       <c r="D29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>42</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>95.94</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1306,20 +1567,20 @@
       <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="n">
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
         <v>57</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>43</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>98</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1328,15 +1589,15 @@
       <c r="D31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>44</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>101.07</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1345,15 +1606,15 @@
       <c r="D32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>45</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>102.9055</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1362,15 +1623,15 @@
       <c r="D33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="E33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>46</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>106.42</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1379,15 +1640,15 @@
       <c r="D34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>47</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>107.8682</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1396,21 +1657,21 @@
       <c r="D35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" s="2" t="n">
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
         <v>390</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>48</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>112.411</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1419,24 +1680,24 @@
       <c r="D36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1" t="n">
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1">
         <v>85</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="2">
         <v>78</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>49</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>114.818</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1445,15 +1706,15 @@
       <c r="D37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>50</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="1">
         <v>118.71</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1462,17 +1723,17 @@
       <c r="D38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="1">
         <v>5</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>51</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="1">
         <v>121.76</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1481,19 +1742,19 @@
       <c r="D39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" s="2" t="n">
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2">
         <v>31</v>
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>52</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="1">
         <v>127.6</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1502,15 +1763,15 @@
       <c r="D40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>53</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="1">
         <v>126.9045</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1519,18 +1780,18 @@
       <c r="D41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="1">
         <v>10</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>55</v>
       </c>
-      <c r="B42" s="1" t="n">
-        <v>132.9055</v>
+      <c r="B42" s="1">
+        <v>132.90549999999999</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>88</v>
@@ -1538,15 +1799,15 @@
       <c r="D42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="E42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>56</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="1">
         <v>137.327</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1555,22 +1816,22 @@
       <c r="D43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" s="2" t="n">
+      <c r="E43" s="1">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
         <v>16000</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>57</v>
       </c>
-      <c r="B44" s="1" t="n">
-        <v>138.9055</v>
+      <c r="B44" s="1">
+        <v>138.90549999999999</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>92</v>
@@ -1578,16 +1839,16 @@
       <c r="D44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>58</v>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>140.116</v>
+      <c r="B45" s="1">
+        <v>140.11600000000001</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>94</v>
@@ -1595,18 +1856,18 @@
       <c r="D45" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="1">
         <v>10</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>59</v>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>140.9077</v>
+      <c r="B46" s="1">
+        <v>140.90770000000001</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>96</v>
@@ -1614,17 +1875,17 @@
       <c r="D46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="1">
         <v>10</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>60</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="1">
         <v>144.24</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1633,18 +1894,18 @@
       <c r="D47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="1">
         <v>10</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>62</v>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>150.36</v>
+      <c r="B48" s="1">
+        <v>150.36000000000001</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>100</v>
@@ -1652,17 +1913,17 @@
       <c r="D48" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="1">
         <v>10</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>63</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="1">
         <v>151.964</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1671,17 +1932,17 @@
       <c r="D49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="1">
         <v>10</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>64</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="1">
         <v>157.25</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1690,18 +1951,18 @@
       <c r="D50" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="1">
         <v>10</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>65</v>
       </c>
-      <c r="B51" s="1" t="n">
-        <v>158.9253</v>
+      <c r="B51" s="1">
+        <v>158.92529999999999</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>106</v>
@@ -1709,17 +1970,17 @@
       <c r="D51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="1">
         <v>10</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>66</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="1">
         <v>162.5</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1728,18 +1989,18 @@
       <c r="D52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E52" s="1">
         <v>10</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>67</v>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>164.9303</v>
+      <c r="B53" s="1">
+        <v>164.93029999999999</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>110</v>
@@ -1747,18 +2008,18 @@
       <c r="D53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E53" s="1">
         <v>10</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>68</v>
       </c>
-      <c r="B54" s="1" t="n">
-        <v>167.259</v>
+      <c r="B54" s="1">
+        <v>167.25899999999999</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>112</v>
@@ -1766,17 +2027,17 @@
       <c r="D54" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E54" s="1">
         <v>10</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>69</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="1">
         <v>168.9342</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1785,17 +2046,17 @@
       <c r="D55" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="1">
         <v>10</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>70</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="1">
         <v>173.04</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1804,18 +2065,18 @@
       <c r="D56" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E56" s="1">
         <v>10</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>71</v>
       </c>
-      <c r="B57" s="1" t="n">
-        <v>174.967</v>
+      <c r="B57" s="1">
+        <v>174.96700000000001</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>118</v>
@@ -1823,17 +2084,17 @@
       <c r="D57" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E57" s="1">
         <v>10</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>72</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="1">
         <v>178.49</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1842,17 +2103,17 @@
       <c r="D58" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="E58" s="1">
         <v>5</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>73</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="1">
         <v>180.9479</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1861,17 +2122,17 @@
       <c r="D59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E59" s="1">
         <v>5</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>74</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="1">
         <v>183.84</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1880,18 +2141,18 @@
       <c r="D60" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E60" s="1">
         <v>5</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>75</v>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>186.207</v>
+      <c r="B61" s="1">
+        <v>186.20699999999999</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>126</v>
@@ -1899,17 +2160,17 @@
       <c r="D61" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E61" s="1">
         <v>5</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>76</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="1">
         <v>190.23</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1918,17 +2179,17 @@
       <c r="D62" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="E62" s="1">
         <v>5</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>77</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="1">
         <v>196.9665</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1937,18 +2198,18 @@
       <c r="D63" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="1" t="n">
+      <c r="E63" s="1">
         <v>5</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>78</v>
       </c>
-      <c r="B64" s="1" t="n">
-        <v>192.217</v>
+      <c r="B64" s="1">
+        <v>192.21700000000001</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>132</v>
@@ -1956,17 +2217,17 @@
       <c r="D64" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="E64" s="1">
         <v>5</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>79</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="1">
         <v>195.078</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -1975,17 +2236,17 @@
       <c r="D65" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E65" s="1">
         <v>5</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>80</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="1">
         <v>200.59</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1994,21 +2255,21 @@
       <c r="D66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F66" s="1" t="n">
+      <c r="E66" s="1">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1">
         <v>840</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>81</v>
       </c>
-      <c r="B67" s="1" t="n">
-        <v>204.3833</v>
+      <c r="B67" s="1">
+        <v>204.38329999999999</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>138</v>
@@ -2016,17 +2277,17 @@
       <c r="D67" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="E67" s="1">
         <v>5</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>82</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="1">
         <v>207.2</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2035,24 +2296,24 @@
       <c r="D68" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E68" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F68" s="1" t="n">
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1">
         <v>420</v>
       </c>
-      <c r="G68" s="2" t="n">
+      <c r="G68" s="2">
         <v>400</v>
       </c>
-      <c r="H68" s="2" t="n">
+      <c r="H68" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>83</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="1">
         <v>208.9804</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2061,18 +2322,18 @@
       <c r="D69" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="E69" s="1">
         <v>5</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>90</v>
       </c>
-      <c r="B70" s="1" t="n">
-        <v>232.0381</v>
+      <c r="B70" s="1">
+        <v>232.03809999999999</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>144</v>
@@ -2080,18 +2341,18 @@
       <c r="D70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E70" s="1" t="n">
+      <c r="E70" s="1">
         <v>5</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>92</v>
       </c>
-      <c r="B71" s="1" t="n">
-        <v>238.0289</v>
+      <c r="B71" s="1">
+        <v>238.02889999999999</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>146</v>
@@ -2099,17 +2360,27 @@
       <c r="D71" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E71" s="1" t="n">
+      <c r="E71" s="1">
         <v>5</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>999</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2117,24 +2388,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="21.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="35.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="3" width="11.52"/>
+    <col min="1" max="1" width="21.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="3" customWidth="1"/>
+    <col min="3" max="1024" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>148</v>
       </c>
@@ -2148,7 +2416,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2159,35 +2427,34 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="0"/>
+      <c r="C3"/>
       <c r="D3" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="0"/>
+      <c r="C4"/>
       <c r="D4" s="3" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/R/vanta_xrf_elements.xlsx
+++ b/R/vanta_xrf_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc-my.sharepoint.com/personal/samuel_araya_usda_gov/Documents/Documents/R-Project/TidyXRF/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_907D5B90573D742009BE52CE1DD4F65D38A92CDB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15C88089-1437-454D-A9B2-676570C3E1C3}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_907D5B90573D742009BE52CE1DD4F65D38A92CDB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BDCC16C-F62B-4B3C-B3B7-6C80625FDA9F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xrf_elements" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
   <si>
     <t>Atomic_Number</t>
   </si>
@@ -472,18 +472,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>column_name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>Regulatory limits on heavy metals applied to soils.</t>
   </si>
   <si>
@@ -496,9 +484,6 @@
     <t>The Soil Remediation Standard for Arsenic is based on natural background levels in soil.</t>
   </si>
   <si>
-    <t>NYS DEC, Soil Cleanup Objectives, Residential Use</t>
-  </si>
-  <si>
     <t>SCOs for As, Ba, Cd, Mn are based on background levels in rural soils</t>
   </si>
   <si>
@@ -506,23 +491,35 @@
   </si>
   <si>
     <t>LE</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Healthy Soils, Healthy Communities: Metals in Urban Garden Soils, URL: http://cwmi.css.cornell.edu/Metals_Urban_Garden_Soils.pdf, Accessed 05/19/2022.</t>
+  </si>
+  <si>
+    <t>Residential (and gardening) soil cleanup objectives developed by the NYS Department of Environmental Conservation and the NYS Department of Health.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -563,14 +560,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -954,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMH72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -967,12 +964,12 @@
     <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
     <col min="7" max="8" width="8.5546875" style="1" customWidth="1"/>
-    <col min="9" max="1022" width="11.5546875" style="1"/>
+    <col min="9" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,10 +988,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1049,7 +1046,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -1065,10 +1062,10 @@
       <c r="E5" s="1">
         <v>50</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -1084,10 +1081,10 @@
       <c r="E6" s="1">
         <v>50</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>17</v>
       </c>
@@ -1103,10 +1100,10 @@
       <c r="E7" s="1">
         <v>50</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -1122,10 +1119,10 @@
       <c r="E8" s="1">
         <v>25</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -1141,8 +1138,8 @@
       <c r="E9" s="1">
         <v>25</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1195,7 +1192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -1214,12 +1211,12 @@
       <c r="F13" s="1">
         <v>3000</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -1235,14 +1232,14 @@
       <c r="E14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>11000</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>26</v>
       </c>
@@ -1258,10 +1255,10 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>27</v>
       </c>
@@ -1277,12 +1274,12 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>1600</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>28</v>
       </c>
@@ -1301,14 +1298,14 @@
       <c r="F17" s="1">
         <v>75</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <v>1600</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>29</v>
       </c>
@@ -1327,14 +1324,14 @@
       <c r="F18" s="1">
         <v>4300</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>3100</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>30</v>
       </c>
@@ -1353,10 +1350,10 @@
       <c r="F19" s="1">
         <v>7500</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <v>23000</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>2200</v>
       </c>
     </row>
@@ -1394,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -1413,14 +1410,14 @@
       <c r="F22" s="1">
         <v>75</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <v>19</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -1439,10 +1436,10 @@
       <c r="F23" s="1">
         <v>100</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <v>390</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <v>36</v>
       </c>
     </row>
@@ -1463,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>37</v>
       </c>
@@ -1479,10 +1476,10 @@
       <c r="E25" s="1">
         <v>5</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>38</v>
       </c>
@@ -1498,8 +1495,8 @@
       <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1518,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40</v>
       </c>
@@ -1534,8 +1531,8 @@
       <c r="E28" s="1">
         <v>5</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1554,7 +1551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42</v>
       </c>
@@ -1573,8 +1570,8 @@
       <c r="F30" s="1">
         <v>57</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1644,7 +1641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>47</v>
       </c>
@@ -1660,14 +1657,14 @@
       <c r="E35" s="1">
         <v>5</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="4">
         <v>390</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>48</v>
       </c>
@@ -1686,10 +1683,10 @@
       <c r="F36" s="1">
         <v>85</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="4">
         <v>78</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="4">
         <v>2.5</v>
       </c>
     </row>
@@ -1710,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>50</v>
       </c>
@@ -1726,10 +1723,10 @@
       <c r="E38" s="1">
         <v>5</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>51</v>
       </c>
@@ -1745,10 +1742,10 @@
       <c r="E39" s="1">
         <v>5</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="4">
         <v>31</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -1767,7 +1764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>53</v>
       </c>
@@ -1783,8 +1780,8 @@
       <c r="E41" s="1">
         <v>10</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -1803,7 +1800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>56</v>
       </c>
@@ -1819,10 +1816,10 @@
       <c r="E43" s="1">
         <v>5</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="4">
         <v>16000</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="4">
         <v>350</v>
       </c>
     </row>
@@ -1843,7 +1840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>58</v>
       </c>
@@ -1859,10 +1856,10 @@
       <c r="E45" s="1">
         <v>10</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>59</v>
       </c>
@@ -1878,10 +1875,10 @@
       <c r="E46" s="1">
         <v>10</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>60</v>
       </c>
@@ -1897,10 +1894,10 @@
       <c r="E47" s="1">
         <v>10</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>62</v>
       </c>
@@ -1916,10 +1913,10 @@
       <c r="E48" s="1">
         <v>10</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>63</v>
       </c>
@@ -1935,10 +1932,10 @@
       <c r="E49" s="1">
         <v>10</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>64</v>
       </c>
@@ -1954,10 +1951,10 @@
       <c r="E50" s="1">
         <v>10</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>65</v>
       </c>
@@ -1973,10 +1970,10 @@
       <c r="E51" s="1">
         <v>10</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>66</v>
       </c>
@@ -1992,10 +1989,10 @@
       <c r="E52" s="1">
         <v>10</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>67</v>
       </c>
@@ -2011,10 +2008,10 @@
       <c r="E53" s="1">
         <v>10</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>68</v>
       </c>
@@ -2030,10 +2027,10 @@
       <c r="E54" s="1">
         <v>10</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>69</v>
       </c>
@@ -2049,10 +2046,10 @@
       <c r="E55" s="1">
         <v>10</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>70</v>
       </c>
@@ -2068,10 +2065,10 @@
       <c r="E56" s="1">
         <v>10</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>71</v>
       </c>
@@ -2087,10 +2084,10 @@
       <c r="E57" s="1">
         <v>10</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>72</v>
       </c>
@@ -2106,10 +2103,10 @@
       <c r="E58" s="1">
         <v>5</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>73</v>
       </c>
@@ -2125,10 +2122,10 @@
       <c r="E59" s="1">
         <v>5</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>74</v>
       </c>
@@ -2144,10 +2141,10 @@
       <c r="E60" s="1">
         <v>5</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>75</v>
       </c>
@@ -2163,10 +2160,10 @@
       <c r="E61" s="1">
         <v>5</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>76</v>
       </c>
@@ -2182,10 +2179,10 @@
       <c r="E62" s="1">
         <v>5</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>77</v>
       </c>
@@ -2201,10 +2198,10 @@
       <c r="E63" s="1">
         <v>5</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>78</v>
       </c>
@@ -2220,10 +2217,10 @@
       <c r="E64" s="1">
         <v>5</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>79</v>
       </c>
@@ -2239,10 +2236,10 @@
       <c r="E65" s="1">
         <v>5</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>80</v>
       </c>
@@ -2261,10 +2258,12 @@
       <c r="F66" s="1">
         <v>840</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G66" s="4"/>
+      <c r="H66" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>81</v>
       </c>
@@ -2280,10 +2279,10 @@
       <c r="E67" s="1">
         <v>5</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>82</v>
       </c>
@@ -2302,14 +2301,14 @@
       <c r="F68" s="1">
         <v>420</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="4">
         <v>400</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>83</v>
       </c>
@@ -2325,10 +2324,10 @@
       <c r="E69" s="1">
         <v>5</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>90</v>
       </c>
@@ -2344,10 +2343,10 @@
       <c r="E70" s="1">
         <v>5</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>92</v>
       </c>
@@ -2363,23 +2362,23 @@
       <c r="E71" s="1">
         <v>5</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>999</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2391,64 +2390,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="3" customWidth="1"/>
-    <col min="3" max="1024" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="21.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="2" customWidth="1"/>
+    <col min="3" max="1024" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C3"/>
+      <c r="D3" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/R/vanta_xrf_elements.xlsx
+++ b/R/vanta_xrf_elements.xlsx
@@ -8,16 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc-my.sharepoint.com/personal/samuel_araya_usda_gov/Documents/Documents/R-Project/TidyXRF/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_907D5B90573D742009BE52CE1DD4F65D38A92CDB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BDCC16C-F62B-4B3C-B3B7-6C80625FDA9F}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_907D5B90573D742009BE52CE1DD4F65D38A92CDB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B1D430C-90DE-41E1-87E2-3CE35F337F9A}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="60" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xrf_elements" sheetId="1" r:id="rId1"/>
     <sheet name="standards_desc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="164">
   <si>
     <t>Atomic_Number</t>
   </si>
@@ -46,9 +55,6 @@
     <t>NRCS Sludge Limits</t>
   </si>
   <si>
-    <t>NJDEP Soil Remediation</t>
-  </si>
-  <si>
     <t>NYS DEC Residential</t>
   </si>
   <si>
@@ -472,15 +478,9 @@
     <t>U</t>
   </si>
   <si>
-    <t>Regulatory limits on heavy metals applied to soils.</t>
-  </si>
-  <si>
     <t>NRCS (2000) Heavy Metal Soil Contamination, Soil Quality—Urban Technical Note No. 3, Soil Quality Institute, Auburn, AL.</t>
   </si>
   <si>
-    <t xml:space="preserve">NJDEP Soil Remediation Standards. Residential Direct Contact Health Based Criteria. </t>
-  </si>
-  <si>
     <t>The Soil Remediation Standard for Arsenic is based on natural background levels in soil.</t>
   </si>
   <si>
@@ -508,7 +508,25 @@
     <t>Healthy Soils, Healthy Communities: Metals in Urban Garden Soils, URL: http://cwmi.css.cornell.edu/Metals_Urban_Garden_Soils.pdf, Accessed 05/19/2022.</t>
   </si>
   <si>
-    <t>Residential (and gardening) soil cleanup objectives developed by the NYS Department of Environmental Conservation and the NYS Department of Health.</t>
+    <t>EPA (2003) Guidance for Developing Ecological Soil Screening Levels (Eco-SSLs), URL: https://www.epa.gov/chemical-research/guidance-developing-ecological-soil-screening-levels, Accessed: 05/20/2022</t>
+  </si>
+  <si>
+    <t>US Soil Background</t>
+  </si>
+  <si>
+    <t>NJ DEP Soil Remediation</t>
+  </si>
+  <si>
+    <t>Regulatory limits on heavy metals applied to soils (NRCS 2000, Technical Note 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NJDEP soil remediation standards. Residential direct contacthealth based criteria. </t>
+  </si>
+  <si>
+    <t>Residential guidelines of NYS Dept. of Envt. Conservation, and  Dept. of Health. (http://cwmi.css.cornell.edu/Metals_Urban_Garden_Soils.pdf)</t>
+  </si>
+  <si>
+    <t>US Median Background Soil Concentration for Metals. (EPA 2003, Eco-SSLs)</t>
   </si>
 </sst>
 </file>
@@ -951,25 +969,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,13 +1009,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>12</v>
       </c>
@@ -1003,16 +1026,19 @@
         <v>24.305</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>13</v>
       </c>
@@ -1020,16 +1046,19 @@
         <v>26.9815</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>14</v>
       </c>
@@ -1037,16 +1066,19 @@
         <v>28.0855</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -1054,18 +1086,21 @@
         <v>30.973800000000001</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>50</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -1073,18 +1108,21 @@
         <v>32.064999999999998</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>17</v>
       </c>
@@ -1092,10 +1130,10 @@
         <v>35.453000000000003</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>50</v>
@@ -1103,7 +1141,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -1111,18 +1149,21 @@
         <v>39.098300000000002</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>25</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -1130,18 +1171,21 @@
         <v>40.078000000000003</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="1">
         <v>25</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -1149,16 +1193,19 @@
         <v>44.9559</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>22</v>
       </c>
@@ -1166,16 +1213,19 @@
         <v>47.866999999999997</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>23</v>
       </c>
@@ -1183,16 +1233,19 @@
         <v>50.941499999999998</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E12" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -1200,10 +1253,10 @@
         <v>51.996099999999998</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -1215,8 +1268,11 @@
       <c r="H13" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -1224,10 +1280,10 @@
         <v>54.938000000000002</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -1238,8 +1294,11 @@
       <c r="H14" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>26</v>
       </c>
@@ -1247,18 +1306,21 @@
         <v>55.844999999999999</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>27</v>
       </c>
@@ -1266,10 +1328,10 @@
         <v>58.933199999999999</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -1278,8 +1340,11 @@
         <v>1600</v>
       </c>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>28</v>
       </c>
@@ -1287,10 +1352,10 @@
         <v>58.693399999999997</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -1304,8 +1369,11 @@
       <c r="H17" s="4">
         <v>140</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>29</v>
       </c>
@@ -1313,10 +1381,10 @@
         <v>63.545999999999999</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
@@ -1330,8 +1398,11 @@
       <c r="H18" s="4">
         <v>270</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>30</v>
       </c>
@@ -1339,10 +1410,10 @@
         <v>65.39</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
@@ -1356,8 +1427,11 @@
       <c r="H19" s="4">
         <v>2200</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>31</v>
       </c>
@@ -1365,16 +1439,19 @@
         <v>69.722999999999999</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E20" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>32</v>
       </c>
@@ -1382,16 +1459,19 @@
         <v>72.64</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -1399,10 +1479,10 @@
         <v>74.921599999999998</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -1416,8 +1496,11 @@
       <c r="H22" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -1425,10 +1508,10 @@
         <v>78.959999999999994</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
@@ -1442,8 +1525,11 @@
       <c r="H23" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>35</v>
       </c>
@@ -1451,16 +1537,19 @@
         <v>79.903999999999996</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E24" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>37</v>
       </c>
@@ -1468,18 +1557,21 @@
         <v>85.467799999999997</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>38</v>
       </c>
@@ -1487,18 +1579,21 @@
         <v>87.62</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>39</v>
       </c>
@@ -1506,16 +1601,19 @@
         <v>88.905900000000003</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E27" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>40</v>
       </c>
@@ -1523,18 +1621,21 @@
         <v>91.224000000000004</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>41</v>
       </c>
@@ -1542,16 +1643,19 @@
         <v>92.906400000000005</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42</v>
       </c>
@@ -1559,10 +1663,10 @@
         <v>95.94</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -1572,8 +1676,11 @@
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43</v>
       </c>
@@ -1581,16 +1688,16 @@
         <v>98</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E31" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44</v>
       </c>
@@ -1598,16 +1705,16 @@
         <v>101.07</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E32" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45</v>
       </c>
@@ -1615,16 +1722,16 @@
         <v>102.9055</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E33" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>46</v>
       </c>
@@ -1632,16 +1739,16 @@
         <v>106.42</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E34" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>47</v>
       </c>
@@ -1649,10 +1756,10 @@
         <v>107.8682</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
@@ -1663,8 +1770,11 @@
       <c r="H35" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>48</v>
       </c>
@@ -1672,10 +1782,10 @@
         <v>112.411</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
@@ -1689,8 +1799,11 @@
       <c r="H36" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>49</v>
       </c>
@@ -1698,16 +1811,16 @@
         <v>114.818</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E37" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>50</v>
       </c>
@@ -1715,18 +1828,21 @@
         <v>118.71</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E38" s="1">
         <v>5</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>51</v>
       </c>
@@ -1734,10 +1850,10 @@
         <v>121.76</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
@@ -1746,8 +1862,11 @@
         <v>31</v>
       </c>
       <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>52</v>
       </c>
@@ -1755,16 +1874,16 @@
         <v>127.6</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E40" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>53</v>
       </c>
@@ -1772,18 +1891,21 @@
         <v>126.9045</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E41" s="1">
         <v>10</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>55</v>
       </c>
@@ -1791,16 +1913,16 @@
         <v>132.90549999999999</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E42" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>56</v>
       </c>
@@ -1808,10 +1930,10 @@
         <v>137.327</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
@@ -1822,8 +1944,11 @@
       <c r="H43" s="4">
         <v>350</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>57</v>
       </c>
@@ -1831,16 +1956,19 @@
         <v>138.90549999999999</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E44" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>58</v>
       </c>
@@ -1848,18 +1976,21 @@
         <v>140.11600000000001</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E45" s="1">
         <v>10</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>59</v>
       </c>
@@ -1867,10 +1998,10 @@
         <v>140.90770000000001</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E46" s="1">
         <v>10</v>
@@ -1878,7 +2009,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>60</v>
       </c>
@@ -1886,18 +2017,21 @@
         <v>144.24</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E47" s="1">
         <v>10</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>62</v>
       </c>
@@ -1905,10 +2039,10 @@
         <v>150.36000000000001</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E48" s="1">
         <v>10</v>
@@ -1916,7 +2050,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>63</v>
       </c>
@@ -1924,10 +2058,10 @@
         <v>151.964</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E49" s="1">
         <v>10</v>
@@ -1935,7 +2069,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>64</v>
       </c>
@@ -1943,10 +2077,10 @@
         <v>157.25</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E50" s="1">
         <v>10</v>
@@ -1954,7 +2088,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>65</v>
       </c>
@@ -1962,10 +2096,10 @@
         <v>158.92529999999999</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E51" s="1">
         <v>10</v>
@@ -1973,7 +2107,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>66</v>
       </c>
@@ -1981,10 +2115,10 @@
         <v>162.5</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E52" s="1">
         <v>10</v>
@@ -1992,7 +2126,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>67</v>
       </c>
@@ -2000,10 +2134,10 @@
         <v>164.93029999999999</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E53" s="1">
         <v>10</v>
@@ -2011,7 +2145,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>68</v>
       </c>
@@ -2019,10 +2153,10 @@
         <v>167.25899999999999</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E54" s="1">
         <v>10</v>
@@ -2030,7 +2164,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>69</v>
       </c>
@@ -2038,10 +2172,10 @@
         <v>168.9342</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E55" s="1">
         <v>10</v>
@@ -2049,7 +2183,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>70</v>
       </c>
@@ -2057,18 +2191,21 @@
         <v>173.04</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E56" s="1">
         <v>10</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>71</v>
       </c>
@@ -2076,10 +2213,10 @@
         <v>174.96700000000001</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E57" s="1">
         <v>10</v>
@@ -2087,7 +2224,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>72</v>
       </c>
@@ -2095,10 +2232,10 @@
         <v>178.49</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E58" s="1">
         <v>5</v>
@@ -2106,7 +2243,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>73</v>
       </c>
@@ -2114,10 +2251,10 @@
         <v>180.9479</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E59" s="1">
         <v>5</v>
@@ -2125,7 +2262,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>74</v>
       </c>
@@ -2133,10 +2270,10 @@
         <v>183.84</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E60" s="1">
         <v>5</v>
@@ -2144,7 +2281,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>75</v>
       </c>
@@ -2152,10 +2289,10 @@
         <v>186.20699999999999</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E61" s="1">
         <v>5</v>
@@ -2163,7 +2300,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>76</v>
       </c>
@@ -2171,10 +2308,10 @@
         <v>190.23</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E62" s="1">
         <v>5</v>
@@ -2182,7 +2319,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>77</v>
       </c>
@@ -2190,10 +2327,10 @@
         <v>196.9665</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E63" s="1">
         <v>5</v>
@@ -2201,7 +2338,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>78</v>
       </c>
@@ -2209,10 +2346,10 @@
         <v>192.21700000000001</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E64" s="1">
         <v>5</v>
@@ -2220,7 +2357,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>79</v>
       </c>
@@ -2228,10 +2365,10 @@
         <v>195.078</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E65" s="1">
         <v>5</v>
@@ -2239,7 +2376,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>80</v>
       </c>
@@ -2247,10 +2384,10 @@
         <v>200.59</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E66" s="1">
         <v>5</v>
@@ -2262,8 +2399,11 @@
       <c r="H66" s="4">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>8.0500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>81</v>
       </c>
@@ -2271,18 +2411,21 @@
         <v>204.38329999999999</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E67" s="1">
         <v>5</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>82</v>
       </c>
@@ -2290,10 +2433,10 @@
         <v>207.2</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E68" s="1">
         <v>5</v>
@@ -2307,8 +2450,11 @@
       <c r="H68" s="4">
         <v>400</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>83</v>
       </c>
@@ -2316,10 +2462,10 @@
         <v>208.9804</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E69" s="1">
         <v>5</v>
@@ -2327,7 +2473,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>90</v>
       </c>
@@ -2335,18 +2481,21 @@
         <v>232.03809999999999</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E70" s="1">
         <v>5</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>92</v>
       </c>
@@ -2354,26 +2503,29 @@
         <v>238.02889999999999</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E71" s="1">
         <v>5</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>999</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2388,68 +2540,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="2" customWidth="1"/>
-    <col min="3" max="1024" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="21.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="107" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="2" customWidth="1"/>
+    <col min="4" max="1024" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/R/vanta_xrf_elements.xlsx
+++ b/R/vanta_xrf_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc-my.sharepoint.com/personal/samuel_araya_usda_gov/Documents/Documents/R-Project/TidyXRF/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_907D5B90573D742009BE52CE1DD4F65D38A92CDB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B1D430C-90DE-41E1-87E2-3CE35F337F9A}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_907D5B90573D742009BE52CE1DD4F65D38A92CDB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86F776A1-3E5E-4493-BC8C-52E79E61D0BE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xrf_elements" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="170">
   <si>
     <t>Atomic_Number</t>
   </si>
@@ -511,9 +511,6 @@
     <t>EPA (2003) Guidance for Developing Ecological Soil Screening Levels (Eco-SSLs), URL: https://www.epa.gov/chemical-research/guidance-developing-ecological-soil-screening-levels, Accessed: 05/20/2022</t>
   </si>
   <si>
-    <t>US Soil Background</t>
-  </si>
-  <si>
     <t>NJ DEP Soil Remediation</t>
   </si>
   <si>
@@ -526,7 +523,28 @@
     <t>Residential guidelines of NYS Dept. of Envt. Conservation, and  Dept. of Health. (http://cwmi.css.cornell.edu/Metals_Urban_Garden_Soils.pdf)</t>
   </si>
   <si>
-    <t>US Median Background Soil Concentration for Metals. (EPA 2003, Eco-SSLs)</t>
+    <t>US Soil Median</t>
+  </si>
+  <si>
+    <t>US Soil 75th Percentile</t>
+  </si>
+  <si>
+    <t>US Soil 90th Percentile</t>
+  </si>
+  <si>
+    <t>US Soil 99th Percentile</t>
+  </si>
+  <si>
+    <t>50th percentile value of US background soil concentration for metals. (EPA 2003, Eco-SSLs)</t>
+  </si>
+  <si>
+    <t>75th percentile value of US background soil concentration for metals. (EPA 2003, Eco-SSLs)</t>
+  </si>
+  <si>
+    <t>90th percentile value of US background soil concentration for metals. (EPA 2003, Eco-SSLs)</t>
+  </si>
+  <si>
+    <t>99th percentile value of US background soil concentration for metals. (EPA 2003, Eco-SSLs)</t>
   </si>
 </sst>
 </file>
@@ -969,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -986,10 +1004,10 @@
     <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5703125" style="1"/>
+    <col min="13" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,16 +1027,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>12</v>
       </c>
@@ -1037,8 +1064,17 @@
       <c r="I2">
         <v>5500</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>10000</v>
+      </c>
+      <c r="K2">
+        <v>11200</v>
+      </c>
+      <c r="L2">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>13</v>
       </c>
@@ -1057,8 +1093,17 @@
       <c r="I3">
         <v>49000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>64000</v>
+      </c>
+      <c r="K3">
+        <v>72700</v>
+      </c>
+      <c r="L3">
+        <v>95850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>14</v>
       </c>
@@ -1077,8 +1122,17 @@
       <c r="I4">
         <v>310000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>360000</v>
+      </c>
+      <c r="K4">
+        <v>370000</v>
+      </c>
+      <c r="L4">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -1099,8 +1153,17 @@
       <c r="I5">
         <v>340</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>530</v>
+      </c>
+      <c r="K5">
+        <v>724</v>
+      </c>
+      <c r="L5">
+        <v>852.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -1121,8 +1184,17 @@
       <c r="I6">
         <v>820</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>870</v>
+      </c>
+      <c r="K6">
+        <v>976</v>
+      </c>
+      <c r="L6">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>17</v>
       </c>
@@ -1141,7 +1213,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -1162,8 +1234,17 @@
       <c r="I8">
         <v>15000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>18000</v>
+      </c>
+      <c r="K8">
+        <v>19200</v>
+      </c>
+      <c r="L8">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -1184,8 +1265,17 @@
       <c r="I9">
         <v>9200</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>24000</v>
+      </c>
+      <c r="K9">
+        <v>29600</v>
+      </c>
+      <c r="L9">
+        <v>53440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -1204,8 +1294,17 @@
       <c r="I10">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>22</v>
       </c>
@@ -1224,8 +1323,17 @@
       <c r="I11">
         <v>2900</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>3500</v>
+      </c>
+      <c r="K11">
+        <v>4640</v>
+      </c>
+      <c r="L11">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>23</v>
       </c>
@@ -1244,8 +1352,17 @@
       <c r="I12">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>83.25</v>
+      </c>
+      <c r="K12">
+        <v>110</v>
+      </c>
+      <c r="L12">
+        <v>184.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -1271,8 +1388,17 @@
       <c r="I13">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>55</v>
+      </c>
+      <c r="K13">
+        <v>67</v>
+      </c>
+      <c r="L13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -1297,8 +1423,17 @@
       <c r="I14">
         <v>470</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>610</v>
+      </c>
+      <c r="K14">
+        <v>840</v>
+      </c>
+      <c r="L14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>26</v>
       </c>
@@ -1319,8 +1454,17 @@
       <c r="I15">
         <v>23000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>29000</v>
+      </c>
+      <c r="K15">
+        <v>37000</v>
+      </c>
+      <c r="L15">
+        <v>51330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>27</v>
       </c>
@@ -1343,8 +1487,17 @@
       <c r="I16">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>14.4</v>
+      </c>
+      <c r="L16">
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>28</v>
       </c>
@@ -1372,8 +1525,17 @@
       <c r="I17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <v>28</v>
+      </c>
+      <c r="L17">
+        <v>41.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>29</v>
       </c>
@@ -1401,8 +1563,17 @@
       <c r="I18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>27</v>
+      </c>
+      <c r="K18">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="L18">
+        <v>49.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>30</v>
       </c>
@@ -1430,8 +1601,17 @@
       <c r="I19">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>67</v>
+      </c>
+      <c r="K19">
+        <v>79.2</v>
+      </c>
+      <c r="L19">
+        <v>151.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>31</v>
       </c>
@@ -1450,8 +1630,17 @@
       <c r="I20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>24.2</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>32</v>
       </c>
@@ -1470,8 +1659,17 @@
       <c r="I21">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>1.4</v>
+      </c>
+      <c r="K21">
+        <v>1.6</v>
+      </c>
+      <c r="L21">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -1499,8 +1697,17 @@
       <c r="I22">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="K22">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="L22">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -1528,8 +1735,17 @@
       <c r="I23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>0.73</v>
+      </c>
+      <c r="L23">
+        <v>2.0209999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>35</v>
       </c>
@@ -1548,8 +1764,17 @@
       <c r="I24">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K24">
+        <v>1.5</v>
+      </c>
+      <c r="L24">
+        <v>5.2160000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>37</v>
       </c>
@@ -1570,8 +1795,17 @@
       <c r="I25">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>82</v>
+      </c>
+      <c r="K25">
+        <v>93.2</v>
+      </c>
+      <c r="L25">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>38</v>
       </c>
@@ -1592,8 +1826,17 @@
       <c r="I26">
         <v>130</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>200</v>
+      </c>
+      <c r="K26">
+        <v>293</v>
+      </c>
+      <c r="L26">
+        <v>491.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>39</v>
       </c>
@@ -1612,8 +1855,17 @@
       <c r="I27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>30</v>
+      </c>
+      <c r="K27">
+        <v>33</v>
+      </c>
+      <c r="L27">
+        <v>38.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>40</v>
       </c>
@@ -1634,8 +1886,17 @@
       <c r="I28">
         <v>220</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>290</v>
+      </c>
+      <c r="K28">
+        <v>322</v>
+      </c>
+      <c r="L28">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>41</v>
       </c>
@@ -1654,8 +1915,17 @@
       <c r="I29">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>13</v>
+      </c>
+      <c r="K29">
+        <v>15</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42</v>
       </c>
@@ -1679,8 +1949,17 @@
       <c r="I30">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>1.9</v>
+      </c>
+      <c r="K30">
+        <v>2.48</v>
+      </c>
+      <c r="L30">
+        <v>4.1959999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43</v>
       </c>
@@ -1697,7 +1976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44</v>
       </c>
@@ -1714,7 +1993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45</v>
       </c>
@@ -1731,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>46</v>
       </c>
@@ -1748,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>47</v>
       </c>
@@ -1773,8 +2052,17 @@
       <c r="I35">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1.2</v>
+      </c>
+      <c r="L35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>48</v>
       </c>
@@ -1802,8 +2090,17 @@
       <c r="I36">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>0.63</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>49</v>
       </c>
@@ -1820,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>50</v>
       </c>
@@ -1841,8 +2138,17 @@
       <c r="I38">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>1.5</v>
+      </c>
+      <c r="K38">
+        <v>2.36</v>
+      </c>
+      <c r="L38">
+        <v>3.9279999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>51</v>
       </c>
@@ -1865,8 +2171,17 @@
       <c r="I39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>1.125</v>
+      </c>
+      <c r="K39">
+        <v>1.3</v>
+      </c>
+      <c r="L39">
+        <v>2.7069999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>52</v>
       </c>
@@ -1883,7 +2198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>53</v>
       </c>
@@ -1904,8 +2219,17 @@
       <c r="I41">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="K41">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L41">
+        <v>5.0380000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>55</v>
       </c>
@@ -1922,7 +2246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>56</v>
       </c>
@@ -1947,8 +2271,17 @@
       <c r="I43">
         <v>440</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>625</v>
+      </c>
+      <c r="K43">
+        <v>732</v>
+      </c>
+      <c r="L43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>57</v>
       </c>
@@ -1967,8 +2300,17 @@
       <c r="I44">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>44</v>
+      </c>
+      <c r="K44">
+        <v>48.2</v>
+      </c>
+      <c r="L44">
+        <v>54.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>58</v>
       </c>
@@ -1989,8 +2331,17 @@
       <c r="I45">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>112</v>
+      </c>
+      <c r="L45">
+        <v>125.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>59</v>
       </c>
@@ -2009,7 +2360,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>60</v>
       </c>
@@ -2030,8 +2381,17 @@
       <c r="I47">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>53</v>
+      </c>
+      <c r="K47">
+        <v>58.2</v>
+      </c>
+      <c r="L47">
+        <v>74.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>62</v>
       </c>
@@ -2050,7 +2410,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>63</v>
       </c>
@@ -2069,7 +2429,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>64</v>
       </c>
@@ -2088,7 +2448,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>65</v>
       </c>
@@ -2107,7 +2467,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>66</v>
       </c>
@@ -2126,7 +2486,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>67</v>
       </c>
@@ -2145,7 +2505,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>68</v>
       </c>
@@ -2164,7 +2524,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>69</v>
       </c>
@@ -2183,7 +2543,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>70</v>
       </c>
@@ -2204,8 +2564,17 @@
       <c r="I56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>3.8</v>
+      </c>
+      <c r="K56">
+        <v>4.3</v>
+      </c>
+      <c r="L56">
+        <v>5.6879999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>71</v>
       </c>
@@ -2224,7 +2593,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>72</v>
       </c>
@@ -2243,7 +2612,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>73</v>
       </c>
@@ -2262,7 +2631,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>74</v>
       </c>
@@ -2281,7 +2650,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>75</v>
       </c>
@@ -2300,7 +2669,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>76</v>
       </c>
@@ -2319,7 +2688,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>77</v>
       </c>
@@ -2338,7 +2707,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>78</v>
       </c>
@@ -2357,7 +2726,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>79</v>
       </c>
@@ -2376,7 +2745,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>80</v>
       </c>
@@ -2402,8 +2771,17 @@
       <c r="I66">
         <v>8.0500000000000002E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K66">
+        <v>0.2</v>
+      </c>
+      <c r="L66">
+        <v>0.31259999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>81</v>
       </c>
@@ -2424,8 +2802,17 @@
       <c r="I67">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>0.8</v>
+      </c>
+      <c r="K67">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="L67">
+        <v>1.2669999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>82</v>
       </c>
@@ -2453,8 +2840,17 @@
       <c r="I68">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>22.5</v>
+      </c>
+      <c r="K68">
+        <v>28.8</v>
+      </c>
+      <c r="L68">
+        <v>41.94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>83</v>
       </c>
@@ -2473,7 +2869,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>90</v>
       </c>
@@ -2494,8 +2890,17 @@
       <c r="I70">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>11.8</v>
+      </c>
+      <c r="L70">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>92</v>
       </c>
@@ -2516,8 +2921,17 @@
       <c r="I71">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>3.45</v>
+      </c>
+      <c r="K71">
+        <v>3.9</v>
+      </c>
+      <c r="L71">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>999</v>
       </c>
@@ -2540,10 +2954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2573,7 +2987,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>147</v>
@@ -2581,10 +2995,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="2" t="s">
@@ -2596,7 +3010,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>156</v>
@@ -2606,19 +3020,52 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>158</v>
+      <c r="A5" t="s">
+        <v>162</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>157</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
